--- a/JS_Tracker.xlsx
+++ b/JS_Tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Problem</t>
   </si>
@@ -329,6 +329,12 @@
   </si>
   <si>
     <t>JsonStringify</t>
+  </si>
+  <si>
+    <t>JsonParse</t>
+  </si>
+  <si>
+    <t>HTMLEncodingOfStr</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -625,6 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:G77"/>
+  <dimension ref="C2:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1465,6 +1472,18 @@
     <row r="77" spans="3:4">
       <c r="C77" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="D77" s="49"/>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="C78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="49"/>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="C79" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/JS_Tracker.xlsx
+++ b/JS_Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="16212" windowHeight="5280"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="16212" windowHeight="5280" tabRatio="238"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Problem</t>
   </si>
@@ -335,6 +335,126 @@
   </si>
   <si>
     <t>HTMLEncodingOfStr</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Mixin</t>
+  </si>
+  <si>
+    <t>Mediator/Middleware</t>
+  </si>
+  <si>
+    <t>Flyweight</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>ReactJs</t>
+  </si>
+  <si>
+    <t>Hooks</t>
+  </si>
+  <si>
+    <t>useState, useEffect, useContext, useReducer, useMemo, useCallback, useRef</t>
+  </si>
+  <si>
+    <t>Higher Order Components</t>
+  </si>
+  <si>
+    <t>what, why, when, how, use it in Machine coding ?</t>
+  </si>
+  <si>
+    <t>Life cycle methods of components (Class components)</t>
+  </si>
+  <si>
+    <t>Mounting, Updating, Unmounting phase and order of methods</t>
+  </si>
+  <si>
+    <t>State management</t>
+  </si>
+  <si>
+    <t>State/Props, props drilling, React Context, data transfer between sibling, from child to parent</t>
+  </si>
+  <si>
+    <t>Redux/Zustand</t>
+  </si>
+  <si>
+    <t>Custom Hooks</t>
+  </si>
+  <si>
+    <t>when, code, benefits?</t>
+  </si>
+  <si>
+    <t>how, why, when ? (redux toolkit [RTK])</t>
+  </si>
+  <si>
+    <t>Lazy Loading</t>
+  </si>
+  <si>
+    <t>code splitting, chunking, suspense</t>
+  </si>
+  <si>
+    <t>Virtual DOM</t>
+  </si>
+  <si>
+    <t>reconciliation, react fiber, how rendering works, diffing algorithm</t>
+  </si>
+  <si>
+    <t>SSR vs CSR</t>
+  </si>
+  <si>
+    <t>what, difference, when to use?</t>
+  </si>
+  <si>
+    <t>Routing (RBAC)</t>
+  </si>
+  <si>
+    <t>role based access controller, react-router, protected routes, dynamic routing</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Async tasks</t>
+  </si>
+  <si>
+    <t>react testing library</t>
+  </si>
+  <si>
+    <t>api calls, events, handling promises</t>
+  </si>
+  <si>
+    <t>Coding practices</t>
+  </si>
+  <si>
+    <t>Reusablility/Modularity/Testability</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>component rendering, lazy loading, asset optimization (js/css), code optimization, bundler, CDN/server optimization</t>
+  </si>
+  <si>
+    <t>Styling</t>
+  </si>
+  <si>
+    <t>basic CSS/SCSS, Tailwind, StyleX, Bootstrap, when to use what?</t>
+  </si>
+  <si>
+    <t>Accesibility</t>
+  </si>
+  <si>
+    <t>Security</t>
   </si>
 </sst>
 </file>
@@ -551,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -604,6 +724,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,7 +752,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:G79"/>
+  <dimension ref="C2:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -951,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="41" t="s">
         <v>15</v>
       </c>
     </row>
@@ -960,84 +1085,84 @@
         <v>2</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="41"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="41"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="41"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="41"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="3:5">
       <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="41"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="3:5">
       <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="41"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="3:5">
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="41"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="3:5" ht="15" thickBot="1">
       <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="42"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="2" t="s">
@@ -1057,7 +1182,7 @@
       <c r="F20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="47" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1070,7 +1195,7 @@
       <c r="F21" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="47"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="3:7" ht="28.8">
       <c r="C22" s="17" t="s">
@@ -1081,7 +1206,7 @@
       <c r="F22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="47"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="3:7" ht="28.8">
       <c r="C23" s="17" t="s">
@@ -1092,7 +1217,7 @@
       <c r="F23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="47"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="3:7" ht="57.6">
       <c r="C24" s="17" t="s">
@@ -1103,7 +1228,7 @@
       <c r="F24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="47"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" s="17" t="s">
@@ -1112,7 +1237,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="19"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="47"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="3:7" ht="15" thickBot="1">
       <c r="C26" s="22" t="s">
@@ -1121,7 +1246,7 @@
       <c r="D26" s="23"/>
       <c r="E26" s="24"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="48"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="3:7" ht="15" thickBot="1"/>
     <row r="28" spans="3:7" ht="72" customHeight="1">
@@ -1133,7 +1258,7 @@
       <c r="F28" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="44" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1144,7 +1269,7 @@
       <c r="D29" s="18"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="44"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" spans="3:7" ht="43.8" thickBot="1">
       <c r="C30" s="22" t="s">
@@ -1155,7 +1280,7 @@
       <c r="F30" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="45"/>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" spans="3:7" ht="15" thickBot="1"/>
     <row r="32" spans="3:7" ht="28.8">
@@ -1403,87 +1528,264 @@
       </c>
       <c r="D63" s="18"/>
     </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="2" t="s">
-        <v>72</v>
+    <row r="65" spans="3:4" ht="18">
+      <c r="C65" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="D65" s="18"/>
     </row>
     <row r="66" spans="3:4" ht="18">
       <c r="C66" s="31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D66" s="18"/>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="18"/>
     </row>
     <row r="68" spans="3:4" ht="18">
       <c r="C68" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" s="18"/>
-    </row>
-    <row r="69" spans="3:4" ht="18">
-      <c r="C69" s="31" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D69" s="18"/>
     </row>
-    <row r="70" spans="3:4">
-      <c r="C70" s="39" t="s">
-        <v>76</v>
+    <row r="70" spans="3:4" ht="18">
+      <c r="C70" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="D70" s="18"/>
     </row>
     <row r="71" spans="3:4" ht="18">
       <c r="C71" s="31" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="3:4">
-      <c r="C72" s="2" t="s">
-        <v>78</v>
+    <row r="72" spans="3:4" ht="18">
+      <c r="C72" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="D72" s="18"/>
     </row>
     <row r="73" spans="3:4" ht="18">
       <c r="C73" s="31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D73" s="18"/>
     </row>
-    <row r="74" spans="3:4" ht="18">
-      <c r="C74" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="3:4" ht="18">
-      <c r="C75" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D75" s="18"/>
-    </row>
-    <row r="76" spans="3:4" ht="18">
-      <c r="C76" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="18"/>
-    </row>
-    <row r="77" spans="3:4">
-      <c r="C77" s="2" t="s">
+    <row r="74" spans="3:4">
+      <c r="C74" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D77" s="49"/>
+      <c r="D74" s="40"/>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="40"/>
+    </row>
+    <row r="76" spans="3:4">
+      <c r="C76" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D78" s="49"/>
+        <v>72</v>
+      </c>
+      <c r="D78" s="18"/>
     </row>
     <row r="79" spans="3:4">
-      <c r="C79" t="s">
-        <v>85</v>
+      <c r="C79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="18"/>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="18"/>
+    </row>
+    <row r="81" spans="3:6">
+      <c r="C81" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="18"/>
+    </row>
+    <row r="82" spans="3:6">
+      <c r="C82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="18"/>
+    </row>
+    <row r="83" spans="3:6">
+      <c r="C83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="18"/>
+    </row>
+    <row r="84" spans="3:6">
+      <c r="C84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="18"/>
+    </row>
+    <row r="85" spans="3:6">
+      <c r="C85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="18"/>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="C86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="18"/>
+    </row>
+    <row r="88" spans="3:6" ht="21">
+      <c r="C88" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" ht="28.8">
+      <c r="C89" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F89" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6">
+      <c r="C90" t="s">
+        <v>103</v>
+      </c>
+      <c r="F90" s="52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6">
+      <c r="C91" t="s">
+        <v>96</v>
+      </c>
+      <c r="F91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" ht="28.8">
+      <c r="C92" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F92" s="52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" ht="28.8">
+      <c r="C93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F93" s="52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6">
+      <c r="C94" t="s">
+        <v>102</v>
+      </c>
+      <c r="F94" s="52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6">
+      <c r="C96" t="s">
+        <v>106</v>
+      </c>
+      <c r="F96" s="52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" ht="28.8">
+      <c r="C97" t="s">
+        <v>108</v>
+      </c>
+      <c r="F97" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6">
+      <c r="C98" t="s">
+        <v>110</v>
+      </c>
+      <c r="F98" s="52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" ht="28.8">
+      <c r="C99" t="s">
+        <v>112</v>
+      </c>
+      <c r="F99" s="52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6">
+      <c r="C100" t="s">
+        <v>114</v>
+      </c>
+      <c r="F100" s="52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6">
+      <c r="C101" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6">
+      <c r="C102" t="s">
+        <v>118</v>
+      </c>
+      <c r="F102" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" ht="43.2">
+      <c r="C103" t="s">
+        <v>120</v>
+      </c>
+      <c r="F103" s="52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" ht="28.8">
+      <c r="C104" t="s">
+        <v>122</v>
+      </c>
+      <c r="F104" s="52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6">
+      <c r="C105" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6">
+      <c r="C106" s="52" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/JS_Tracker.xlsx
+++ b/JS_Tracker.xlsx
@@ -671,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -755,6 +755,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1053,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1683,10 +1686,12 @@
       </c>
     </row>
     <row r="92" spans="3:6" ht="28.8">
-      <c r="C92" s="52" t="s">
+      <c r="C92" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="F92" s="52" t="s">
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="53" t="s">
         <v>99</v>
       </c>
     </row>

--- a/JS_Tracker.xlsx
+++ b/JS_Tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Problem</t>
   </si>
@@ -455,6 +455,27 @@
   </si>
   <si>
     <t>Security</t>
+  </si>
+  <si>
+    <t>NamasteReact</t>
+  </si>
+  <si>
+    <t>ch-3</t>
+  </si>
+  <si>
+    <t>Laying the foundation</t>
+  </si>
+  <si>
+    <t>ch-4</t>
+  </si>
+  <si>
+    <t>Talk is cheap, show me the code</t>
+  </si>
+  <si>
+    <t>ch-5</t>
+  </si>
+  <si>
+    <t>Let's get hooked</t>
   </si>
 </sst>
 </file>
@@ -725,6 +746,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -751,14 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1054,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:G106"/>
+  <dimension ref="B2:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1079,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="45" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1088,84 +1109,84 @@
         <v>2</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="42"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="42"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="42"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="42"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="42"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="42"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="3:5">
       <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="42"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="42"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="42"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="3:5">
       <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="42"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="3:5">
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="42"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" spans="3:5" ht="15" thickBot="1">
       <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="43"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="2" t="s">
@@ -1185,7 +1206,7 @@
       <c r="F20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="51" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1198,7 +1219,7 @@
       <c r="F21" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" spans="3:7" ht="28.8">
       <c r="C22" s="17" t="s">
@@ -1209,7 +1230,7 @@
       <c r="F22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="3:7" ht="28.8">
       <c r="C23" s="17" t="s">
@@ -1220,7 +1241,7 @@
       <c r="F23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="52"/>
     </row>
     <row r="24" spans="3:7" ht="57.6">
       <c r="C24" s="17" t="s">
@@ -1231,7 +1252,7 @@
       <c r="F24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="48"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" s="17" t="s">
@@ -1240,7 +1261,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="19"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="48"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="3:7" ht="15" thickBot="1">
       <c r="C26" s="22" t="s">
@@ -1249,7 +1270,7 @@
       <c r="D26" s="23"/>
       <c r="E26" s="24"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="49"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="3:7" ht="15" thickBot="1"/>
     <row r="28" spans="3:7" ht="72" customHeight="1">
@@ -1261,7 +1282,7 @@
       <c r="F28" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="48" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1272,7 +1293,7 @@
       <c r="D29" s="18"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="45"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="3:7" ht="43.8" thickBot="1">
       <c r="C30" s="22" t="s">
@@ -1283,7 +1304,7 @@
       <c r="F30" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="46"/>
+      <c r="G30" s="50"/>
     </row>
     <row r="31" spans="3:7" ht="15" thickBot="1"/>
     <row r="32" spans="3:7" ht="28.8">
@@ -1657,15 +1678,15 @@
       <c r="D86" s="18"/>
     </row>
     <row r="88" spans="3:6" ht="21">
-      <c r="C88" s="50" t="s">
+      <c r="C88" s="41" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="89" spans="3:6" ht="28.8">
-      <c r="C89" s="51" t="s">
+      <c r="C89" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="F89" s="52" t="s">
+      <c r="F89" s="43" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1673,7 +1694,7 @@
       <c r="C90" t="s">
         <v>103</v>
       </c>
-      <c r="F90" s="52" t="s">
+      <c r="F90" s="43" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1686,12 +1707,12 @@
       </c>
     </row>
     <row r="92" spans="3:6" ht="28.8">
-      <c r="C92" s="53" t="s">
+      <c r="C92" s="44" t="s">
         <v>98</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
-      <c r="F92" s="53" t="s">
+      <c r="F92" s="44" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1699,7 +1720,7 @@
       <c r="C93" t="s">
         <v>100</v>
       </c>
-      <c r="F93" s="52" t="s">
+      <c r="F93" s="43" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1707,7 +1728,7 @@
       <c r="C94" t="s">
         <v>102</v>
       </c>
-      <c r="F94" s="52" t="s">
+      <c r="F94" s="43" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1715,82 +1736,111 @@
       <c r="C96" t="s">
         <v>106</v>
       </c>
-      <c r="F96" s="52" t="s">
+      <c r="F96" s="43" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="3:6" ht="28.8">
+    <row r="97" spans="2:6" ht="28.8">
       <c r="C97" t="s">
         <v>108</v>
       </c>
-      <c r="F97" s="52" t="s">
+      <c r="F97" s="43" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="3:6">
+    <row r="98" spans="2:6">
       <c r="C98" t="s">
         <v>110</v>
       </c>
-      <c r="F98" s="52" t="s">
+      <c r="F98" s="43" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="3:6" ht="28.8">
+    <row r="99" spans="2:6" ht="28.8">
       <c r="C99" t="s">
         <v>112</v>
       </c>
-      <c r="F99" s="52" t="s">
+      <c r="F99" s="43" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="3:6">
+    <row r="100" spans="2:6">
       <c r="C100" t="s">
         <v>114</v>
       </c>
-      <c r="F100" s="52" t="s">
+      <c r="F100" s="43" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="3:6">
+    <row r="101" spans="2:6">
       <c r="C101" t="s">
         <v>115</v>
       </c>
-      <c r="F101" s="52" t="s">
+      <c r="F101" s="43" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="3:6">
+    <row r="102" spans="2:6">
       <c r="C102" t="s">
         <v>118</v>
       </c>
-      <c r="F102" s="52" t="s">
+      <c r="F102" s="43" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="3:6" ht="43.2">
+    <row r="103" spans="2:6" ht="43.2">
       <c r="C103" t="s">
         <v>120</v>
       </c>
-      <c r="F103" s="52" t="s">
+      <c r="F103" s="43" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="3:6" ht="28.8">
+    <row r="104" spans="2:6" ht="28.8">
       <c r="C104" t="s">
         <v>122</v>
       </c>
-      <c r="F104" s="52" t="s">
+      <c r="F104" s="43" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="3:6">
+    <row r="105" spans="2:6">
       <c r="C105" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="106" spans="3:6">
-      <c r="C106" s="52" t="s">
+    <row r="106" spans="2:6">
+      <c r="C106" s="43" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" ht="18">
+      <c r="C108" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
